--- a/Excel_FFT_Simulation.xlsx
+++ b/Excel_FFT_Simulation.xlsx
@@ -5,17 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h217482/OneDrive/OneDrive - Honeywell/Work/GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h217482/OneDrive/OneDrive - Honeywell/Work/GitHub/FFT_in_Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF138646-8EA6-B345-9D68-627A397779E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6921B092-2018-FE41-BA83-95DC68974CB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="700" windowWidth="28040" windowHeight="17440" xr2:uid="{96870EA9-B49E-C744-91EA-4E0DBA8D3796}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$2:$D$1025</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$2:$E$1025</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3228,7 +3233,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3246,7 +3251,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -9428,7 +9435,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8BE8-0547-8DCE-B152798FB7E5}"/>
@@ -17182,15 +17189,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17554,7 +17561,7 @@
   <dimension ref="A1:G1025"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
